--- a/bots/crawl_ch/output/bread_coop_2023-02-19.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O327"/>
+  <dimension ref="A1:O326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt 2.40 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt - Online kein Bestand 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6150,7 +6150,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7002,7 +7002,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8000,7 +8000,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8284,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8925,7 +8925,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -8994,7 +8994,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -9067,45 +9067,45 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>5909397</t>
+          <t>3041596</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne</t>
+          <t>Naturaplan Bio Ballast Knäckebrot</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-naturaplan-bio-cracker-kuerbiskerne/p/5909397</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E123" t="n">
         <v>4.5</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.30/100g</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9115,7 +9115,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9125,56 +9125,60 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr"/>
+          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3041596</t>
+          <t>5909397</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot</t>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-naturaplan-bio-cracker-kuerbiskerne/p/5909397</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E124" t="n">
         <v>4.5</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1.30/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9184,7 +9188,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9194,22 +9198,18 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -9278,7 +9278,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -9347,7 +9347,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -9696,45 +9696,45 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>6826714</t>
+          <t>3726487</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
+          <t>Pasquier Pitch Schokolade 8 Stück</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-schokolade-8-stueck/p/3726487</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -9754,56 +9754,56 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
+          <t>Pasquier Pitch Schokolade 8 Stück 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>3726487</t>
+          <t>3041836</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Schokolade 8 Stück</t>
+          <t>Roland Knäckebrot Délicatesse Roggen</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-schokolade-8-stueck/p/3726487</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-delicatesse-roggen/p/3041836</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E133" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -9823,56 +9823,60 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Schokolade 8 Stück 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr"/>
+          <t>Roland Knäckebrot Délicatesse Roggen 2.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3041836</t>
+          <t>6102963</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Délicatesse Roggen</t>
+          <t>Naturaplan Bio Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-delicatesse-roggen/p/3041836</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E134" t="n">
         <v>4.5</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9882,7 +9886,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -9892,46 +9896,42 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Délicatesse Roggen 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Bündner Nusstorte 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>6102963</t>
+          <t>6826714</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -9940,12 +9940,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -9965,18 +9965,18 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte 8.95 Schweizer Franken</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10337,7 +10337,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10410,7 +10410,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10836,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10905,7 +10905,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11193,7 +11193,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11266,7 +11266,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11619,7 +11619,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11692,7 +11692,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11761,7 +11761,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11830,7 +11830,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11903,7 +11903,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -11972,7 +11972,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12041,7 +12041,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12114,7 +12114,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12252,7 +12252,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12321,7 +12321,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12390,7 +12390,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12463,7 +12463,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12532,7 +12532,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -13027,7 +13027,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -13096,7 +13096,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -13169,45 +13169,45 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6767586</t>
+          <t>6601630</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie</t>
+          <t>Roland Petite Pause Family Schokolade</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E181" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Milka</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13227,56 +13227,56 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
+          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>6601630</t>
+          <t>6767586</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade</t>
+          <t>Milka Choco Brownie</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E182" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Milka</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13296,18 +13296,18 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
+          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -13666,7 +13666,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -13877,7 +13877,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14157,7 +14157,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14230,7 +14230,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14303,7 +14303,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14449,7 +14449,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14522,7 +14522,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14591,7 +14591,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14664,7 +14664,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14810,7 +14810,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14879,7 +14879,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -14952,45 +14952,45 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>7036109</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Quicook Kuchenteig</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/quicook-kuchenteig/p/7036109</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E206" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15000,7 +15000,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15010,60 +15010,58 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+          <t>Quicook Kuchenteig 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>7036109</t>
+          <t>3431133</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Quicook Kuchenteig</t>
+          <t>Betty Bossi Vogelnestli 2x  100g</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/quicook-kuchenteig/p/7036109</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15073,7 +15071,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15083,44 +15081,42 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Quicook Kuchenteig 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>3431133</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>3</v>
+      </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -15129,12 +15125,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15144,7 +15140,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -15154,18 +15150,22 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N208" t="inlineStr"/>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -15234,7 +15234,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -15303,7 +15303,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -15372,7 +15372,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -15441,7 +15441,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -15510,7 +15510,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -15579,7 +15579,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -15648,7 +15648,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -15721,24 +15721,24 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>6424899</t>
+          <t>6348879</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -15749,17 +15749,17 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15779,35 +15779,39 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N217" t="inlineStr"/>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>6348879</t>
+          <t>6424899</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
+          <t>Prix Garantie Aprikosen Tartelettes</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -15818,17 +15822,17 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15838,7 +15842,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15848,22 +15852,18 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 20% ab 2 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -15930,45 +15930,45 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>4793918</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>St Michel Madeleines 10 Stück</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E220" t="n">
         <v>4.5</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -15978,7 +15978,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15988,56 +15988,56 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>4793918</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E221" t="n">
         <v>4.5</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16047,7 +16047,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16057,18 +16057,18 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -16135,7 +16135,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -16204,7 +16204,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -16277,7 +16277,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -16350,7 +16350,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -16423,7 +16423,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -16492,7 +16492,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -16561,7 +16561,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -16630,7 +16630,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -16699,7 +16699,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -16772,7 +16772,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -16841,45 +16841,45 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>6762461</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Bischofberger Biber Vegan</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E233" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16889,7 +16889,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16904,51 +16904,55 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N233" t="inlineStr"/>
+          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>6762461</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -16958,7 +16962,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -16973,17 +16977,13 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -17125,7 +17125,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -17265,7 +17265,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -17334,7 +17334,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -17403,7 +17403,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -17472,45 +17472,45 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>6786544</t>
+          <t>6150311</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E242" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>1.06/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17520,7 +17520,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17535,51 +17535,51 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>6150311</t>
+          <t>6629343</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
+          <t>Schokoladen Cake</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17589,7 +17589,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17604,37 +17604,37 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
+          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>6629343</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Schokoladen Cake</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E244" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -17643,12 +17643,12 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17658,7 +17658,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17668,42 +17668,44 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N244" t="inlineStr"/>
+          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>6832049</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
-        </is>
-      </c>
-      <c r="D245" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -17717,7 +17719,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17727,7 +17729,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17737,58 +17739,60 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>6832049</t>
+          <t>6786544</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
+          <t>Mulino Bianco Nascondini</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>2</v>
+      </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>1.06/100g</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -17798,7 +17802,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17808,22 +17812,18 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -17892,7 +17892,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -17959,7 +17959,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18028,7 +18028,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18097,7 +18097,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18166,7 +18166,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18235,7 +18235,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18304,7 +18304,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18377,7 +18377,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18450,7 +18450,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18519,7 +18519,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18592,7 +18592,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18663,7 +18663,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18732,7 +18732,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18801,7 +18801,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -18874,45 +18874,45 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>6010377</t>
+          <t>6776778</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake</t>
+          <t>Werners Markt Magenbrot</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/werners-markt-magenbrot/p/6776778</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E262" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Cailler</t>
+          <t>Werner's</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -18922,7 +18922,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -18932,56 +18932,56 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
+          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>6776778</t>
+          <t>6010377</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot</t>
+          <t>Cailler Schoggi Branchli Cake</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/werners-markt-magenbrot/p/6776778</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E263" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Werner's</t>
+          <t>Cailler</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -18991,7 +18991,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19001,18 +19001,18 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
+          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -19081,7 +19081,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -19150,7 +19150,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -19223,45 +19223,45 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>6967945</t>
+          <t>6109575</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat</t>
+          <t>Naturaplan Bio Linzertorte mit Herz</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E267" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.66/100g</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19286,51 +19286,51 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>6109575</t>
+          <t>6967945</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz</t>
+          <t>St. Michel Dooomino au chocolat</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2.66/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19340,7 +19340,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19355,13 +19355,13 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
+          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -19430,24 +19430,24 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
@@ -19491,30 +19491,30 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
@@ -19558,13 +19558,13 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -19633,7 +19633,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -19706,7 +19706,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -19779,7 +19779,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -19848,45 +19848,45 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -19896,7 +19896,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19906,56 +19906,54 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
-        </is>
-      </c>
-      <c r="D277" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
       <c r="E277" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -19965,7 +19963,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -19975,54 +19973,56 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>41</v>
+      </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20032,7 +20032,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20042,18 +20042,18 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -20120,7 +20120,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -20193,31 +20193,31 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E281" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -20226,12 +20226,12 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20241,7 +20241,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20251,42 +20251,46 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr"/>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E282" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -20295,12 +20299,12 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20310,7 +20314,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20320,22 +20324,18 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -20404,7 +20404,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -20473,7 +20473,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -20542,7 +20542,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -20611,7 +20611,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -20680,7 +20680,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -20749,7 +20749,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -20818,7 +20818,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -20891,7 +20891,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -20960,7 +20960,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -21029,7 +21029,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -21102,45 +21102,43 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
-        </is>
-      </c>
-      <c r="D294" t="n">
-        <v>14</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
       <c r="E294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21150,7 +21148,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21160,54 +21158,60 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N294" t="inlineStr"/>
+          <t>Dar-Vida Nature 33% ab 3 Aktion 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>14</v>
+      </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21217,7 +21221,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21227,22 +21231,18 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 33% ab 3 Aktion 1.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N295" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -21315,45 +21315,45 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E297" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -21373,56 +21373,56 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E298" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21432,7 +21432,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21442,35 +21442,35 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -21486,12 +21486,12 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21501,7 +21501,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21511,18 +21511,18 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -21591,7 +21591,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -21660,45 +21660,45 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6828661</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Birnenweggli</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E302" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21708,7 +21708,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21718,56 +21718,56 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>Birnenweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6828661</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Birnenweggli</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E303" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21777,7 +21777,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21792,51 +21792,55 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Birnenweggli 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N303" t="inlineStr"/>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>2.86/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21846,7 +21850,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21861,55 +21865,55 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>3570059</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E305" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Croustipâte</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2.86/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -21919,7 +21923,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -21929,60 +21933,60 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>3570059</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E306" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Croustipâte</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -21992,7 +21996,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22002,60 +22006,60 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+          <t>Old El Paso Fajita Kit Gluten Free 20% ab 2 Aktion 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E307" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22065,7 +22069,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22075,60 +22079,56 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 20% ab 2 Aktion 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N307" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E308" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22138,7 +22138,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22148,56 +22148,56 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E309" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22207,7 +22207,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22217,56 +22217,60 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N309" t="inlineStr"/>
+          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22276,7 +22280,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22286,12 +22290,12 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
@@ -22301,45 +22305,45 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E311" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22349,7 +22353,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22359,60 +22363,54 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
-        </is>
-      </c>
-      <c r="D312" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
       <c r="E312" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22422,7 +22420,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22432,35 +22430,35 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Old el Paso BBQ Pocket Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
         </is>
       </c>
       <c r="D313" t="inlineStr"/>
@@ -22469,17 +22467,17 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22489,7 +22487,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -22499,54 +22497,56 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
       <c r="E314" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22556,7 +22556,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -22566,56 +22566,56 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6472919</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-herzbiber-3x76g/p/6472919</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -22625,7 +22625,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -22635,18 +22635,22 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N315" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g 21% Aktion 4.95 Schweizer Franken statt 6.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -22715,45 +22719,45 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6472919</t>
+          <t>4486076</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g</t>
+          <t>Zweifel Appenzeller Biberli 10 Stück</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-herzbiber-3x76g/p/6472919</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zweifel-appenzeller-biberli-10-stueck/p/4486076</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.81/100g</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -22763,7 +22767,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22778,7 +22782,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g 21% Aktion 4.95 Schweizer Franken statt 6.30 Schweizer Franken</t>
+          <t>Zweifel Appenzeller Biberli 10 Stück 20% Aktion 13.60 Schweizer Franken statt 17.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -22788,45 +22792,45 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>4486076</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Zweifel Appenzeller Biberli 10 Stück</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zweifel-appenzeller-biberli-10-stueck/p/4486076</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>1.81/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -22836,7 +22840,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22851,7 +22855,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Zweifel Appenzeller Biberli 10 Stück 20% Aktion 13.60 Schweizer Franken statt 17.00 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -22861,45 +22865,45 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E319" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -22909,7 +22913,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -22919,46 +22923,42 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N319" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -22997,51 +22997,51 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E321" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23051,7 +23051,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23061,18 +23061,18 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
@@ -23141,45 +23141,45 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E323" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23189,7 +23189,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23199,56 +23199,54 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
-        </is>
-      </c>
-      <c r="D324" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr"/>
       <c r="E324" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23258,7 +23256,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23273,49 +23271,51 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>3</v>
+      </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23325,7 +23325,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23335,56 +23335,56 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E326" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23394,7 +23394,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23404,91 +23404,22 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N326" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-19 12:55:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>4145231</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
-        </is>
-      </c>
-      <c r="D327" t="n">
-        <v>14</v>
-      </c>
-      <c r="E327" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>3.28/100g</t>
-        </is>
-      </c>
-      <c r="I327" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
-        </is>
-      </c>
-      <c r="M327" t="inlineStr">
-        <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
-      <c r="O327" t="inlineStr">
-        <is>
-          <t>2023-02-19 12:55:50</t>
+          <t>2023-02-19 20:49:07</t>
         </is>
       </c>
     </row>
